--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AAF1BA-3AD4-4C3C-A079-FDC4B354484E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392E7EB8-D218-468B-9026-E9DC10BCA0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
@@ -765,8 +765,8 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>34</v>
